--- a/ApiTestItem/CaseFolder/Qone.xlsx
+++ b/ApiTestItem/CaseFolder/Qone.xlsx
@@ -451,6 +451,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"PAGE_SIZE":"10","STATUS":"1","PAGE_INDEX":"1","USER_ACCOUNT":"$USER_ACCOUNT$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","SIGN":"$sign$"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ID,USER_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">{'Equal':{'status_code': '200',
 'RESPONSE_STATUS': 'OK',
 'ERROR_MESSAGE':'None',
@@ -461,22 +483,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"PAGE_SIZE":"10","STATUS":"1","PAGE_INDEX":"1","USER_ACCOUNT":"$USER_ACCOUNT$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>/api/CobraUser/Login_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">{'Equal':{'status_code': '201',
@@ -486,14 +494,6 @@
 'TELPHONE':'$account$' },
 'In':['刘云','登录成功']}
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID,USER_ACCOUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/CobraUser/Login_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -915,7 +915,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,12 +1002,12 @@
         <v>113</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -1026,17 +1026,17 @@
         <v>92</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1057,11 +1057,11 @@
         <v>75</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>75</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>67</v>

--- a/ApiTestItem/CaseFolder/Qone.xlsx
+++ b/ApiTestItem/CaseFolder/Qone.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="117">
   <si>
     <t>Checkpoint</t>
   </si>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"APP_KEY":"10001","CITY":"武汉","DEVICE_VERSION":"$deviceversion$","EDUCATION":"educationA","EMAIL":"$email$","FORMAT":"json","MARRAGE":"marrageCouple","MOBILE1":"$account$","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CONTACT":[{"CONTACT_PROPERTY":"CONTACT_RELATIVE1","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelCon"},{"CONTACT_PROPERTY":"CONTACT_RELATIVE2","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelPar"},{"COM_DEPT":"金融部","COM_POSITION":"主管","CONTACT_PROPERTY":"CONTACT_JOB_CERT","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelMat"}],"PRE_APP_LOAN":{"LOAN_PURPOSE":"LoanPurposeBuy"},"RESIDENT_ADDRESS":"$adress$","RESIDENT_CITY":"420100","RESIDENT_PROVINCE":"420000","SAME_AS_RESIDENTIAL_ADDRESS":"Y","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/preappmain/create</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
   </si>
   <si>
     <t>{"SIGN":"$sign$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","CONTENT":"这里是反馈意见","FORMAT":"json","APP_KEY":"10001","SUBMITTER_ID":"$ID$","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,10 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/CobraUser/Login_1,/api/preappmain/create_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,14 +440,6 @@
   </si>
   <si>
     <t>{"PAGE_SIZE":"10","STATUS":"1","PAGE_INDEX":"1","USER_ACCOUNT":"$USER_ACCOUNT$","DEVICE_VERSION":"$deviceversion$","VERSION":"$veron$","FORMAT":"json","APP_KEY":"10001","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","SIGN":"$sign$"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FALSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,13 +467,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{'Equal':{'status_code': '201',
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/CobraUser/Login_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{'Equal':{'status_code': '200',
 'RESPONSE_STATUS': 'OK',
 'ERROR_MESSAGE':'None',
-'NAME':'刘云',
 'TELPHONE':'$account$' },
-'In':['刘云','登录成功']}
+'In':['登录成功']}
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'APP_KEY':'10001','DEVICE_VERSION':'$deviceversion$','FORMAT':'json','ID_NO':'$idcd$','MEDIA_DATA':[{"MEDIA":"","MEDIA_TYPE":1},{"MEDIA":"","MEDIA_TYPE":2}],'MOBILE':'$account$','NAME':'$uname(4)$','TIMESTAMP':'$tm$','U_ID':'$USER_ACCOUNT$','VERSION':'$veron$','SIGN':'$sign$'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"APP_KEY":"10001","CITY":"武汉","DEVICE_VERSION":"$deviceversion$","EDUCATION":"educationA","EMAIL":"$email$","FORMAT":"json","MARRAGE":"marrageCouple","MOBILE1":"$account$","PRE_APP_CODE":"$PRE_APP_CODE$","PRE_APP_CONTACT":[{"CONTACT_PROPERTY":"CONTACT_RELATIVE1","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelCon"},{"CONTACT_PROPERTY":"CONTACT_RELATIVE2","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelPar"},{"COM_DEPT":"金融部","COM_POSITION":"主管","CONTACT_PROPERTY":"CONTACT_JOB_CERT","MOBILE":"$mobile$","NAME":"$uname$","RELATIONSHIP":"relationshipRelMat"}],"PRE_APP_LOAN":{"LOAN_PURPOSE":"LoanPurposeBuy"},"RESIDENT_ADDRESS":"$adress$","RESIDENT_CITY":"420100","RESIDENT_PROVINCE":"420000","SAME_AS_RESIDENTIAL_ADDRESS":"Y","TIMESTAMP":"$tm$","U_ID":"$USER_ACCOUNT$","VERSION":"$veron$","SIGN":"$sign$"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,10 +960,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
@@ -975,7 +977,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>15</v>
@@ -991,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="11"/>
@@ -999,15 +1001,15 @@
         <v>8</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -1023,161 +1025,161 @@
         <v>10</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L6" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>14</v>
@@ -1193,25 +1195,25 @@
         <v>8</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L8" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>18</v>
@@ -1231,21 +1233,21 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L9" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>22</v>
@@ -1265,21 +1267,21 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>24</v>
@@ -1299,27 +1301,27 @@
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>9</v>
@@ -1329,27 +1331,27 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>30</v>
@@ -1369,21 +1371,21 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>27</v>
@@ -1403,21 +1405,21 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>32</v>
@@ -1437,21 +1439,21 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>34</v>
@@ -1471,27 +1473,27 @@
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L16" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>9</v>
@@ -1501,31 +1503,31 @@
         <v>8</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="57" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>9</v>
@@ -1535,31 +1537,31 @@
         <v>8</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L18" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>9</v>
@@ -1569,88 +1571,88 @@
         <v>8</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L19" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>95</v>
-      </c>
       <c r="L21" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
